--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value318.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value318.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7553017998647644</v>
+        <v>0.76505446434021</v>
       </c>
       <c r="B1">
-        <v>1.019538096783725</v>
+        <v>1.28700864315033</v>
       </c>
       <c r="C1">
-        <v>1.670391696910461</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.402869322918743</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.866226411789299</v>
+        <v>1.623239994049072</v>
       </c>
     </row>
   </sheetData>
